--- a/excel/product.xlsx
+++ b/excel/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyunlu/code/go/projects/src/staff-mall-center/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83993F-AFAE-6142-81EE-1613A2BEE07B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8E0AB-2C8D-AE4A-B42A-4CB8C7FDC0D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{AEC9261C-3F42-254D-94E7-61B30E9F517D}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{AEC9261C-3F42-254D-94E7-61B30E9F517D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,29 @@
   </si>
   <si>
     <t>//img.yweidao.com/2017/07/18/goods_pc_image/1500354812152klo0txyvw3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商(英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商（全称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx供应商</t>
+  </si>
+  <si>
+    <t>xxxx供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +159,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF313131"/>
+      <name val="STHeiti"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,11 +193,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F897EBA-FECE-7B49-BA69-061907E91ADC}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +551,14 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,8 +583,14 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -569,6 +614,12 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
